--- a/room_attribution/resultats/demi_journee_2/statistiques.xlsx
+++ b/room_attribution/resultats/demi_journee_2/statistiques.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6793</t>
+          <t>6658</t>
         </is>
       </c>
     </row>
@@ -478,7 +478,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>31941.52s</t>
+          <t>429.72s</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1079 (97.4%)</t>
+          <t>1106 (99.8%)</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>29 (2.6%)</t>
+          <t>2 (0.2%)</t>
         </is>
       </c>
     </row>
@@ -574,7 +574,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3984</t>
+          <t>3966</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>466</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.58</t>
         </is>
       </c>
     </row>
@@ -610,7 +610,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.42</t>
         </is>
       </c>
     </row>
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D4" t="n">
         <v>4</v>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>191</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D9" t="n">
         <v>5</v>
@@ -832,7 +832,7 @@
         <v>208</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D12" t="n">
         <v>5</v>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D13" t="n">
         <v>5</v>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D14" t="n">
         <v>4</v>
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D16" t="n">
         <v>5</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -958,7 +958,7 @@
         <v>211</v>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -973,7 +973,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D19" t="n">
         <v>5</v>
@@ -1012,7 +1012,7 @@
         <v>28</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D22" t="n">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1063,10 +1063,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1084,7 +1084,7 @@
         <v>35</v>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D26" t="n">
         <v>3</v>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" t="n">
         <v>2</v>
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
@@ -1153,7 +1153,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D29" t="n">
         <v>2</v>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D30" t="n">
         <v>2</v>
@@ -1189,7 +1189,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D31" t="n">
         <v>2</v>
@@ -1210,7 +1210,7 @@
         <v>39</v>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
